--- a/output_files/output.xlsx
+++ b/output_files/output.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Cyclone Bagmaker P6062" sheetId="4" r:id="rId4"/>
     <sheet name="REF HOPPER US SFR AND ENT" sheetId="5" r:id="rId5"/>
     <sheet name="GENERAL" sheetId="6" r:id="rId6"/>
-    <sheet name="9in Celox feeder for Deca" sheetId="7" r:id="rId7"/>
+    <sheet name="9in Celox feeder" sheetId="7" r:id="rId7"/>
     <sheet name="17 may pusher face modifi" sheetId="8" r:id="rId8"/>
     <sheet name="20345 Small endloader" sheetId="9" r:id="rId9"/>
     <sheet name="JUNK" sheetId="10" r:id="rId10"/>
@@ -22,18 +22,18 @@
     <sheet name="CP2956 GEN MILLS" sheetId="13" r:id="rId13"/>
     <sheet name="CONCEPT ROTARY FEEDER" sheetId="14" r:id="rId14"/>
     <sheet name="GEN 3 BAGGER" sheetId="15" r:id="rId15"/>
-    <sheet name="Standard RTS" sheetId="16" r:id="rId16"/>
-    <sheet name="15 INCH FEEDER" sheetId="17" r:id="rId17"/>
+    <sheet name="15 INCH FEEDER" sheetId="16" r:id="rId16"/>
+    <sheet name="Standard RTS" sheetId="17" r:id="rId17"/>
     <sheet name="20552-000-00" sheetId="18" r:id="rId18"/>
-    <sheet name="Bearings &amp; Bushings" sheetId="19" r:id="rId19"/>
-    <sheet name="VIDEOJET 6210 SW 3D" sheetId="20" r:id="rId20"/>
+    <sheet name="HS5214 Nestle Solon Infee" sheetId="19" r:id="rId19"/>
+    <sheet name="Bearings &amp; Bushings" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="747">
   <si>
     <t>name</t>
   </si>
@@ -155,18 +155,18 @@
     <t>20345-370-04.SLDPRT</t>
   </si>
   <si>
+    <t>lugged belt 1_njh.SLDPRT</t>
+  </si>
+  <si>
+    <t>20345-370-27.SLDASM</t>
+  </si>
+  <si>
+    <t>over head guide jacking belt.SLDPRT</t>
+  </si>
+  <si>
     <t>P00450434.SLDPRT</t>
   </si>
   <si>
-    <t>lugged belt 1_njh.SLDPRT</t>
-  </si>
-  <si>
-    <t>over head guide jacking belt.SLDPRT</t>
-  </si>
-  <si>
-    <t>20345-370-27.SLDASM</t>
-  </si>
-  <si>
     <t>CG-025-24A.SLDPRT</t>
   </si>
   <si>
@@ -182,15 +182,15 @@
     <t>20346-101-60.SLDASM</t>
   </si>
   <si>
+    <t>Autogard Clutch Mod 303.SLDPRT</t>
+  </si>
+  <si>
+    <t>digital indicator DA04-04.SLDPRT</t>
+  </si>
+  <si>
     <t>RHP SF Flange Bearing.SLDPRT</t>
   </si>
   <si>
-    <t>digital indicator DA04-04.SLDPRT</t>
-  </si>
-  <si>
-    <t>Autogard Clutch Mod 303.SLDPRT</t>
-  </si>
-  <si>
     <t>chain drive to tc.SLDPRT</t>
   </si>
   <si>
@@ -200,21 +200,21 @@
     <t>20095-319-04-2.SLDPRT</t>
   </si>
   <si>
+    <t>SIKO- DA09S (Short) Indicator .SLDPRT</t>
+  </si>
+  <si>
+    <t>Schmersal BPS16 Actuator.SLDPRT</t>
+  </si>
+  <si>
+    <t>INA IR inner ring.SLDPRT</t>
+  </si>
+  <si>
+    <t>RHP C.R. Flange Brg. Type  PSFT  .sldprt</t>
+  </si>
+  <si>
     <t>SMC CG1BN40-50 (X).sldprt</t>
   </si>
   <si>
-    <t>INA IR inner ring.SLDPRT</t>
-  </si>
-  <si>
-    <t>SIKO- DA09S (Short) Indicator .SLDPRT</t>
-  </si>
-  <si>
-    <t>RHP C.R. Flange Brg. Type  PSFT  .sldprt</t>
-  </si>
-  <si>
-    <t>Schmersal BPS16 Actuator.SLDPRT</t>
-  </si>
-  <si>
     <t>20095-501-17.SLDPRT</t>
   </si>
   <si>
@@ -296,6 +296,12 @@
     <t>Allen Braley Sensor Type 42KC.SLDPRT</t>
   </si>
   <si>
+    <t>20442-401-03-SUDO.SLDPRT</t>
+  </si>
+  <si>
+    <t>20442-401-05.SLDPRT</t>
+  </si>
+  <si>
     <t>20442-401-00.SLDASM</t>
   </si>
   <si>
@@ -311,51 +317,45 @@
     <t>20442-401-01.SLDASM</t>
   </si>
   <si>
-    <t>20442-401-03-SUDO.SLDPRT</t>
-  </si>
-  <si>
-    <t>20442-401-05.SLDPRT</t>
+    <t>POLY CHAIN GT 8M-25S-12.SLDPRT</t>
+  </si>
+  <si>
+    <t>POLY CHAIN GT 8M-50S-12.SLDPRT</t>
+  </si>
+  <si>
+    <t>POLY CHAIN GT 8M Type  2F.SLDPRT</t>
   </si>
   <si>
     <t>20281-100-39.SLDPRT</t>
   </si>
   <si>
-    <t>POLY CHAIN GT 8M Type  2F.SLDPRT</t>
-  </si>
-  <si>
-    <t>POLY CHAIN GT 8M-25S-12.SLDPRT</t>
-  </si>
-  <si>
-    <t>POLY CHAIN GT 8M-50S-12.SLDPRT</t>
+    <t>RHP C.R. Pillow Block Brg  Type PNP.SLDPRT</t>
+  </si>
+  <si>
+    <t>schmersal gaurd switch BNS 33.SLDPRT</t>
+  </si>
+  <si>
+    <t>MST 323.SLDPRT</t>
+  </si>
+  <si>
+    <t>LOCKNUT- SENSORS-d.sldprt</t>
+  </si>
+  <si>
+    <t>129263.SLDPRT</t>
+  </si>
+  <si>
+    <t>129261.SLDPRT</t>
   </si>
   <si>
     <t>20392-370-05.SLDPRT</t>
   </si>
   <si>
-    <t>129261.SLDPRT</t>
-  </si>
-  <si>
-    <t>LOCKNUT- SENSORS-d.sldprt</t>
-  </si>
-  <si>
-    <t>129263.SLDPRT</t>
+    <t>SMC CG1BA25-150 (X092....).SLDPRT</t>
   </si>
   <si>
     <t>SMC VT317-5D-02 (X0930175).SLDPRT</t>
   </si>
   <si>
-    <t>SMC CG1BA25-150 (X092....).SLDPRT</t>
-  </si>
-  <si>
-    <t>MST 323.SLDPRT</t>
-  </si>
-  <si>
-    <t>schmersal gaurd switch BNS 33.SLDPRT</t>
-  </si>
-  <si>
-    <t>RHP C.R. Pillow Block Brg  Type PNP.SLDPRT</t>
-  </si>
-  <si>
     <t>Allen Bradley sensor Type 42 BA.SLDPRT</t>
   </si>
   <si>
@@ -383,102 +383,102 @@
     <t>R:\Doc\SolidWorks\Certiwrap\CP2956 GEN MILLS</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\HS4813 LITTLE LADY FOODS\Little Lady Foods</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X02 Drive Components</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\HS5041 REQUEST FOODS\RTS\20552-000-00</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X06 Bearings</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\HS5041 REQUEST FOODS\RTS\Standard RTS</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\VOLDEMORT\CONCEPT HOPPER</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\P6144 SFR USA\SMART-BELT\IPTU TYPE INFEED</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X09 Pneumatics</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X46 Sensors</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\A0094 STOCK GROUP RAC</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X05 Conveyor Parts</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\H HOPLEY STUFF\auto load study\open flight pic</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\H HOPLEY STUFF\Standard Parts_njh\Palette Parts\X06 Bearings</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\P00 KC Standard Parts</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\SMC.CylAcc.Models\Pivot Bracket (CG1_6-5-12)</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\20346 smallendloader usa</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X16 Fittings General</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\20367 Small endloader inserter</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\P6153 CELOX AP\JUNK</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\HS4794 Little Lady Foods\Mods to Load Side Tucker</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\VOLDEMORT\CONCEPT ROTARY FEEDER</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\Gen3 Endloader\Main Machine</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X18 Glue Systems</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\MSTs</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\HS4794 Little Lady Foods\Bristol load side tucker</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\HS5041 REQUEST FOODS\RTS\20552-000-00</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X02 Drive Components</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\P6144 SFR USA\SMART-BELT\IPTU TYPE INFEED</t>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\KIL Stuff\X02 Drive Components</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\HS5194 TYSON\KIL-Reverse fold\20552-401-00</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X44 Switches</t>
   </si>
   <si>
     <t>R:\Doc\SolidWorks\VOLDEMORT\REF HOPPER US SFR AND ENTERPRISE</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X09 Pneumatics</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\MSTs</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\HS5041 REQUEST FOODS\RTS\Standard RTS</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X06 Bearings</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X46 Sensors</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\A0094 STOCK GROUP RAC</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X05 Conveyor Parts</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\P00 KC Standard Parts</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\H HOPLEY STUFF\auto load study\open flight pic</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\H HOPLEY STUFF\Standard Parts_njh\Palette Parts\X06 Bearings</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\SMC.CylAcc.Models\Pivot Bracket (CG1_6-5-12)</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\20346 smallendloader usa</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X16 Fittings General</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\20367 Small endloader inserter</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\P6153 CELOX AP\JUNK</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\HS4794 Little Lady Foods\Mods to Load Side Tucker</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\VOLDEMORT\CONCEPT ROTARY FEEDER</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\Gen3 Endloader\Main Machine</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X18 Glue Systems</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\HS4813 LITTLE LADY FOODS\Little Lady Foods</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\KIL Stuff\X02 Drive Components</t>
-  </si>
-  <si>
     <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\20392-sfelox</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\VOLDEMORT\CONCEPT HOPPER</t>
+    <t>R:\Doc\SolidWorks\H HOPLEY STUFF\Standard Parts_njh\Palette Parts\X09 Pneumatics</t>
   </si>
   <si>
     <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\KIL Stuff\X09 Pneumatics</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\H HOPLEY STUFF\Standard Parts_njh\Palette Parts\X09 Pneumatics</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X44 Switches</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\HS5194 TYSON\KIL-Reverse fold\20552-401-00</t>
-  </si>
-  <si>
     <t>R:\Doc\SolidWorks\H HOPLEY STUFF\Standard Parts_njh\Palette Parts\X46 Sensors</t>
   </si>
   <si>
@@ -593,18 +593,18 @@
     <t>CHAIN 2.SLDPRT</t>
   </si>
   <si>
+    <t>WASHER M6.sldprt</t>
+  </si>
+  <si>
+    <t>ELESA DD52 Indicator.sldprt</t>
+  </si>
+  <si>
+    <t>MPL-B330P-MJ22AA (N8800304).sldprt</t>
+  </si>
+  <si>
     <t>MST 335.SLDPRT</t>
   </si>
   <si>
-    <t>MPL-B330P-MJ22AA (N8800304).sldprt</t>
-  </si>
-  <si>
-    <t>WASHER M6.sldprt</t>
-  </si>
-  <si>
-    <t>ELESA DD52 Indicator.sldprt</t>
-  </si>
-  <si>
     <t>HG_100S-MF2-XX-6EX PARTS 6 7 8 ASSY.SLDASM</t>
   </si>
   <si>
@@ -662,18 +662,18 @@
     <t>MST 415.SLDPRT</t>
   </si>
   <si>
+    <t>109770.SLDPRT</t>
+  </si>
+  <si>
     <t>Knob  Ray part 1032  (X1610002).SLDPRT</t>
   </si>
   <si>
-    <t>109770.SLDPRT</t>
+    <t>20095-602-08.sldprt</t>
   </si>
   <si>
     <t>Split Collars - 2 Piece.SLDPRT</t>
   </si>
   <si>
-    <t>20095-602-08.sldprt</t>
-  </si>
-  <si>
     <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\RDC-Reducer\114546</t>
   </si>
   <si>
@@ -689,46 +689,127 @@
     <t>R:\Doc\SolidWorks\P6153 CELOX AP</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\HS4975 Nestle Gaffney Celox 9H\FEILD CHANGES</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X027</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\HS4973 Kraft Tech Center (Celox)</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\HS4974 ConAgra (Opp. hand Captain H)</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\P6163 VARI-STRAIGHT (AAP)\OMNI lug design\OMNI LUG PROPOSAL\lug assy</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\HS4975 Nestle Gaffney Celox 9H\9in Celox feeder for Decatur 25 july 2008</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\HS4975 Nestle Gaffney Celox 9H\4176-802-003</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\HS4975 Nestle Gaffney Celox 9H\CELOX 9 SKI GUIDES FROM KWIL</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\HS4998 HEINZ GATEWAY</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\Mini GLC</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\Luke\HS4975</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\KIL Stuff\X16 Fittings General</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\HS4973 Kraft Tech Center (Celox)\15 INCH FEEDER</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\HS4973 Kraft Tech Center (Celox)</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\HS4974 ConAgra (Opp. hand Captain H)</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\P6163 VARI-STRAIGHT (AAP)\OMNI lug design\OMNI LUG PROPOSAL\lug assy</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\HS4975 Nestle Gaffney Celox 9H\9in Celox feeder for Decatur 25 july 2008</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\HS4975 Nestle Gaffney Celox 9H\4176-802-003</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\HS4975 Nestle Gaffney Celox 9H\CELOX 9 SKI GUIDES FROM KWIL</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\HS4998 HEINZ GATEWAY</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\Mini GLC</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\KIL Stuff\X16 Fittings General</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\Luke\HS4975</t>
-  </si>
-  <si>
     <t>R:\Doc\SolidWorks\P6190 Project Venus\Data Exchange\Kliklok ACE S1</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\HS4975 Nestle Gaffney Celox 9H\FEILD CHANGES</t>
+    <t>KW P3 RND 120mm - Actuator Bracket.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - Base (Poker Guard).sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - KRE FA 061020 - M6 x 20 HEX SET SCREW.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - KRE FA019 - M10 FLAT WASHER.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - KRE FA136 - M4 x 30 SKT CAP SCREW.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - Shaft Bracket.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - Shroud Wing Round.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - Bracket Round.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - Cone Round.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - D60-1105B.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - Gusset (Poker Guard).sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - Inner Face (Poker Guard).sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - KRE FA 049002 - DIA 4 x 16 SOLID DOWEL PIN_PreviewCfg.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - KRE FA020 - M10 SPRING WASHER.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - KRE FA049 - M10 x 35 HEX SET SCREW.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - KRE FA055 - M6 HEX NUT.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - KRE FA100 - M6 SPRING WASHER.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - Body Overlap Round (LR).sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - Body Underlap Round (LR).sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - KRE FA034 - M6 x 12 SKT GRUB SCREW PCP.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - KRE FA039 - M8 x 20 HEX SET SCREW.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - Plate Round.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - Poker Arm.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - Post Round.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - Ring Round.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - Shroud Round.sldprt</t>
+  </si>
+  <si>
+    <t>KW P3 RND 120mm - Support Bracket Round.sldprt</t>
   </si>
   <si>
     <t>KW P3 RND 120mm - KRE FA 068001 - M6 FLAT WASHER DIA 11.sldprt</t>
@@ -788,87 +869,6 @@
     <t>KW P3 RND 120mm - Stop Angle Round.sldprt</t>
   </si>
   <si>
-    <t>KW P3 RND 120mm - Actuator Bracket.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - Base (Poker Guard).sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - KRE FA 061020 - M6 x 20 HEX SET SCREW.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - KRE FA019 - M10 FLAT WASHER.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - KRE FA136 - M4 x 30 SKT CAP SCREW.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - Shaft Bracket.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - Shroud Wing Round.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - Bracket Round.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - Cone Round.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - D60-1105B.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - Gusset (Poker Guard).sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - Inner Face (Poker Guard).sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - KRE FA 049002 - DIA 4 x 16 SOLID DOWEL PIN_PreviewCfg.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - KRE FA020 - M10 SPRING WASHER.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - KRE FA049 - M10 x 35 HEX SET SCREW.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - KRE FA055 - M6 HEX NUT.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - KRE FA100 - M6 SPRING WASHER.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - Body Overlap Round (LR).sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - Body Underlap Round (LR).sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - KRE FA034 - M6 x 12 SKT GRUB SCREW PCP.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - KRE FA039 - M8 x 20 HEX SET SCREW.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - Plate Round.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - Poker Arm.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - Post Round.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - Ring Round.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - Shroud Round.sldprt</t>
-  </si>
-  <si>
-    <t>KW P3 RND 120mm - Support Bracket Round.sldprt</t>
-  </si>
-  <si>
     <t>RS_Thermoplastic_handle.1.1.1.sldprt</t>
   </si>
   <si>
@@ -893,12 +893,12 @@
     <t>K40-MP1.0-N01MS_30.sldprt</t>
   </si>
   <si>
+    <t>TEST.SLDASM</t>
+  </si>
+  <si>
     <t>FIXTURE.SLDASM</t>
   </si>
   <si>
-    <t>TEST.SLDASM</t>
-  </si>
-  <si>
     <t>136438.sldasm</t>
   </si>
   <si>
@@ -908,141 +908,141 @@
     <t>070448 FTG SMC KQ2LE06-00.SLDASM</t>
   </si>
   <si>
+    <t>TOP COVER.SLDPRT</t>
+  </si>
+  <si>
+    <t>140846.SLDPRT</t>
+  </si>
+  <si>
+    <t>KQ2LE06-00.sldasm</t>
+  </si>
+  <si>
     <t>056822A PIN SUPPORT ACTUATOR.SLDPRT</t>
   </si>
   <si>
     <t>P0020040 MUFFLER, NUM M1-MN.SLDPRT</t>
   </si>
   <si>
-    <t>140846.SLDPRT</t>
-  </si>
-  <si>
-    <t>TOP COVER.SLDPRT</t>
-  </si>
-  <si>
-    <t>KQ2LE06-00.sldasm</t>
-  </si>
-  <si>
     <t>P0043769.SLDPRT</t>
   </si>
   <si>
+    <t>DOKU_KEL-E5_42250.SLDPRT</t>
+  </si>
+  <si>
     <t>Spacer.SLDPRT</t>
   </si>
   <si>
-    <t>DOKU_KEL-E5_42250.SLDPRT</t>
-  </si>
-  <si>
     <t>Y-G04.SLDASM</t>
   </si>
   <si>
+    <t>B400501200187.SLDPRT</t>
+  </si>
+  <si>
     <t>M12 HEX JAM NUT DIN 936L.sldprt</t>
   </si>
   <si>
-    <t>B400501200187.SLDPRT</t>
-  </si>
-  <si>
     <t>PIVOT ARM.SLDPRT</t>
   </si>
   <si>
     <t>R:\Doc\SolidWorks\P6164 G3 GEMINI TWIN _ POLARIS</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\GENERAL</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\VIDEOJET 6210 SW 3D</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Pneumatics\AV3000-CRI00711</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\P6156 PROJECT APACHE\GEN 3 BAGGER</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Pneumatics</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\MID RANGE CARTONER</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Fittings</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\Cyclone Bagmaker P6062</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\POLARIS\P0043769</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\ELE Stuff</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\P6163 VARI-STRAIGHT (AAP)</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Pneumatics\Double Knuckle (CG1_6-5-12)\Y-G04</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\B Standards\B40 - Spacer, S.S. Tubing</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Hardware\Inch\metric</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\P7004-147 STATIC HOPPER</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\P6164 G3 GEMINI TWIN _ POLARIS\P3 FORMERS\KW P3 RND 120mm LRL CB PA\KW P3 RND 120mm LRL CB PA - Design Confirmation Files</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\VIDEOJET 6210 SW 3D</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Pneumatics\AV3000-CRI00711</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\P6156 PROJECT APACHE\GEN 3 BAGGER</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Pneumatics</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\Cyclone Bagmaker P6062</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\MID RANGE CARTONER</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Fittings</t>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\code daters</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\PNA-Pneumatic Assembly</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\P6184 Frontier Bagger\REFS</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\P504B - Apache Quad Seal(Pleater)\Research\Videos\APACHE 350 CORNER SEALS\APACHE 350 CORNER SEALS</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\K23536 Kimberly-Clark TF BL-ST</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\HS5214 Nestle Solon Infeed</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Fittings\KQ2LE06-00</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\P6086 CYCLONE FRITO-LAY\P6062 Cyclone Bagmaker\Base Machine</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\P6129 Metric Cyclone\Buy parts</t>
   </si>
   <si>
     <t>R:\Doc\SolidWorks\P6164 G3 GEMINI TWIN _ POLARIS\P0043769 CASTING</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\P6163 VARI-STRAIGHT (AAP)</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\ELE Stuff</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Pneumatics\Double Knuckle (CG1_6-5-12)\Y-G04</t>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\RNG-Ring</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\ACT-Actuator\Macron Dynamics UC1-1000X_500Z</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\SMC.CylAcc.Models\Double Knuckle (CG1_6-5-12)\Y-G04</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\B Standards\B40 - Spacer, S.S. Tubing\B40050</t>
   </si>
   <si>
     <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Hardware\Metric</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\B Standards\B40 - Spacer, S.S. Tubing</t>
-  </si>
-  <si>
     <t>R:\Doc\SolidWorks\MID RANGE CARTONER\NEW AB CONSEPTS</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\GENERAL</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\code daters</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\PNA-Pneumatic Assembly</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\P6184 Frontier Bagger\REFS</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\P504B - Apache Quad Seal(Pleater)\Research\Videos\APACHE 350 CORNER SEALS\APACHE 350 CORNER SEALS</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\K23536 Kimberly-Clark TF BL-ST</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\P6086 CYCLONE FRITO-LAY\P6062 Cyclone Bagmaker\Base Machine</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\P6129 Metric Cyclone\Buy parts</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\HS5214 Nestle Solon Infeed</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Fittings\KQ2LE06-00</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\POLARIS\P0043769</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\ACT-Actuator\Macron Dynamics UC1-1000X_500Z</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\RNG-Ring</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\SMC.CylAcc.Models\Double Knuckle (CG1_6-5-12)\Y-G04</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Hardware\Inch\metric</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\B Standards\B40 - Spacer, S.S. Tubing\B40050</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\P7004-147 STATIC HOPPER</t>
-  </si>
-  <si>
     <t>058860 coupling.SLDPRT</t>
   </si>
   <si>
@@ -1133,13 +1133,22 @@
     <t>P0044613 BSH BST FB 1012-8.SLDPRT</t>
   </si>
   <si>
+    <t>063892 UNION T.SLDPRT</t>
+  </si>
+  <si>
     <t>058114 MOUNT, BRIDGE DISC.SLDPRT</t>
   </si>
   <si>
     <t>P00854130 SWT SCM AZ16ZVR.SLDPRT</t>
   </si>
   <si>
-    <t>063892 UNION T.SLDPRT</t>
+    <t>058280 - BELLOFRAM CYL..SLDPRT</t>
+  </si>
+  <si>
+    <t>055206P-SINGLE CYL.SLDPRT</t>
+  </si>
+  <si>
+    <t>076165.SLDPRT</t>
   </si>
   <si>
     <t>032025 EDG TRL X 1012.SLDPRT</t>
@@ -1151,27 +1160,18 @@
     <t>076415 BRG, SKF 2200 E-2RS1.SLDPRT</t>
   </si>
   <si>
-    <t>058280 - BELLOFRAM CYL..SLDPRT</t>
-  </si>
-  <si>
-    <t>055206P-SINGLE CYL.SLDPRT</t>
-  </si>
-  <si>
-    <t>076165.SLDPRT</t>
+    <t>058856 SMC KQ2H06-M5 Male Connector.SLDPRT</t>
   </si>
   <si>
     <t>P0042030.SLDPRT</t>
   </si>
   <si>
+    <t>036448P.SLDPRT</t>
+  </si>
+  <si>
     <t>058033 CON SMC KQ2H06-01S.SLDPRT</t>
   </si>
   <si>
-    <t>036448P.SLDPRT</t>
-  </si>
-  <si>
-    <t>058856 SMC KQ2H06-M5 Male Connector.SLDPRT</t>
-  </si>
-  <si>
     <t>P0030511 SEL TPN S-500 THOMPSON.SLDPRT</t>
   </si>
   <si>
@@ -1205,27 +1205,30 @@
     <t>P0038560 BIN SLM ER14C.SLDPRT</t>
   </si>
   <si>
+    <t>P0015647 KNB KIP 29402 3-LOBE.SLDPRT</t>
+  </si>
+  <si>
     <t>P0067049 ACT WRN D2420B504.SLDPRT</t>
   </si>
   <si>
-    <t>P0015647 KNB KIP 29402 3-LOBE.SLDPRT</t>
-  </si>
-  <si>
     <t>Y17575A.SLDPRT</t>
   </si>
   <si>
     <t>Hex Esna Nut.SLDPRT</t>
   </si>
   <si>
+    <t>076419 LINK, LONG VERTICAL.SLDPRT</t>
+  </si>
+  <si>
     <t>051374P BFL SLM NP-204.SLDPRT</t>
   </si>
   <si>
-    <t>076419 LINK, LONG VERTICAL.SLDPRT</t>
-  </si>
-  <si>
     <t>P0045684 SPR DNL 9 1604 21 DIE.SLDPRT</t>
   </si>
   <si>
+    <t>Imported3.sldprt</t>
+  </si>
+  <si>
     <t>Imported2.sldprt</t>
   </si>
   <si>
@@ -1235,9 +1238,6 @@
     <t>Imported5.sldprt</t>
   </si>
   <si>
-    <t>Imported3.sldprt</t>
-  </si>
-  <si>
     <t>wheel.SLDPRT</t>
   </si>
   <si>
@@ -1253,51 +1253,51 @@
     <t>R:\Doc\SolidWorks\Purchase Parts Library</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\P6153 CELOX AP\KEB</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\K21885 GENERAL MILLS</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\Redrawn Assemblies\054459E ASSY FRAME PULL BELT</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Knobs</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\Alt stripper</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\P6156 PROJECT APACHE\52803_Jaw_Assy</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\Compak II\Kliklok\VALVE AND CRANK</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\POLARIS\AIRBLAST</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\Redrawn Assemblies\054731E ASSY ROTARY SEAM SEAL</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\Cyclone Auto Track</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Hardware\Metric KIL</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\CHAINS</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\Rotary Pack Off</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\BFL-Bearing, Flange</t>
   </si>
   <si>
     <t>R:\Doc\SolidWorks\H HOPLEY STUFF\auto load study\RBI STUFF</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\Redrawn Assemblies\054459E ASSY FRAME PULL BELT</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Knobs</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\Alt stripper</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\Compak II\Kliklok\VALVE AND CRANK</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\POLARIS\AIRBLAST</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\P6156 PROJECT APACHE\52803_Jaw_Assy</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\Redrawn Assemblies\054731E ASSY ROTARY SEAM SEAL</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\Cyclone Auto Track</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Hardware\Metric KIL</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\Rotary Pack Off</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\CHAINS</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\P6153 CELOX AP\KEB</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\K21885 GENERAL MILLS</t>
-  </si>
-  <si>
     <t>166245.SLDASM</t>
   </si>
   <si>
@@ -1409,36 +1409,36 @@
     <t>166259 HAN ESA 241153-C2 M6 X 12MM, ORANGE.SLDPRT</t>
   </si>
   <si>
+    <t>126832 SNR BAN QS18VP6FF100Q8.SLDPRT</t>
+  </si>
+  <si>
     <t>121883.SLDPRT</t>
   </si>
   <si>
+    <t>103488Climax M1C,20mm. Bore, 1 pc.SLDPRT</t>
+  </si>
+  <si>
+    <t>B09S20MM1200X.SLDPRT</t>
+  </si>
+  <si>
+    <t>121880 KNB MIS PCA8-35-B BALL KNOB.SLDPRT</t>
+  </si>
+  <si>
+    <t>M6x16 weld stud.SLDPRT</t>
+  </si>
+  <si>
+    <t>123193 BSH IGU LFM-2023-14.SLDPRT</t>
+  </si>
+  <si>
+    <t>166237 BFL IGU EFSM-20.SLDPRT</t>
+  </si>
+  <si>
+    <t>140729 CGD DID 231110016 V-BELT GUIDE.SLDPRT</t>
+  </si>
+  <si>
     <t>112542 GMT ORM FPW690S-60.SLDPRT</t>
   </si>
   <si>
-    <t>M6x16 weld stud.SLDPRT</t>
-  </si>
-  <si>
-    <t>123193 BSH IGU LFM-2023-14.SLDPRT</t>
-  </si>
-  <si>
-    <t>126832 SNR BAN QS18VP6FF100Q8.SLDPRT</t>
-  </si>
-  <si>
-    <t>103488Climax M1C,20mm. Bore, 1 pc.SLDPRT</t>
-  </si>
-  <si>
-    <t>121880 KNB MIS PCA8-35-B BALL KNOB.SLDPRT</t>
-  </si>
-  <si>
-    <t>166237 BFL IGU EFSM-20.SLDPRT</t>
-  </si>
-  <si>
-    <t>B09S20MM1200X.SLDPRT</t>
-  </si>
-  <si>
-    <t>140729 CGD DID 231110016 V-BELT GUIDE.SLDPRT</t>
-  </si>
-  <si>
     <t>B40050.SLDPRT</t>
   </si>
   <si>
@@ -1460,27 +1460,27 @@
     <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\HAN - Handle</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Sensors</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\P6158 Celox Waist Level Hopper</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\STC-Set Collar</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\B Standards\B09 - Shaft, Idler</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Sheetmetal Weld Studs</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\CGD-Chain Guide</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Motors</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Sheetmetal Weld Studs</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Sensors</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\STC-Set Collar</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\B Standards\B09 - Shaft, Idler</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\CGD-Chain Guide</t>
-  </si>
-  <si>
     <t>339600116000.SLDASM</t>
   </si>
   <si>
@@ -1499,6 +1499,15 @@
     <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts Manufactered</t>
   </si>
   <si>
+    <t>4176-920-000.SLDASM</t>
+  </si>
+  <si>
+    <t>SPRING - COMP - LEE LC 051G 09 S - (N8700031).sldprt</t>
+  </si>
+  <si>
+    <t>SPRING - COMP - LEE LC-026E-14S - (N8700021).sldprt</t>
+  </si>
+  <si>
     <t>4176-510-023.sldprt</t>
   </si>
   <si>
@@ -1514,13 +1523,16 @@
     <t>N8800572 - IFM LASER- OJ5154.sldprt</t>
   </si>
   <si>
-    <t>4176-920-000.SLDASM</t>
-  </si>
-  <si>
-    <t>SPRING - COMP - LEE LC 051G 09 S - (N8700031).sldprt</t>
-  </si>
-  <si>
-    <t>SPRING - COMP - LEE LC-026E-14S - (N8700021).sldprt</t>
+    <t>4176-510-024.sldprt</t>
+  </si>
+  <si>
+    <t>4176-920-002.SLDPRT</t>
+  </si>
+  <si>
+    <t>4176-510-017.sldprt</t>
+  </si>
+  <si>
+    <t>4176-510-018.sldprt</t>
   </si>
   <si>
     <t>4176-510-016.sldprt</t>
@@ -1535,16 +1547,16 @@
     <t>ELESA DD52 Indicator (agile).sldprt</t>
   </si>
   <si>
-    <t>4176-510-024.sldprt</t>
-  </si>
-  <si>
-    <t>4176-920-002.SLDPRT</t>
-  </si>
-  <si>
-    <t>4176-510-017.sldprt</t>
-  </si>
-  <si>
-    <t>4176-510-018.sldprt</t>
+    <t>4334-521-002.SLDASM</t>
+  </si>
+  <si>
+    <t>4334-521-008.SLDPRT</t>
+  </si>
+  <si>
+    <t>4334-602-005.SLDPRT</t>
+  </si>
+  <si>
+    <t>4334-602-010.SLDPRT</t>
   </si>
   <si>
     <t>4334-521-005.SLDPRT</t>
@@ -1553,16 +1565,22 @@
     <t>4334-602-000.SLDASM</t>
   </si>
   <si>
-    <t>4334-521-002.SLDASM</t>
-  </si>
-  <si>
-    <t>4334-521-008.SLDPRT</t>
-  </si>
-  <si>
-    <t>4334-602-005.SLDPRT</t>
-  </si>
-  <si>
-    <t>4334-602-010.SLDPRT</t>
+    <t>4334-521-007.SLDPRT</t>
+  </si>
+  <si>
+    <t>4334-602-001.SLDASM</t>
+  </si>
+  <si>
+    <t>4334-602-006.SLDPRT</t>
+  </si>
+  <si>
+    <t>4334-521-004.SLDPRT</t>
+  </si>
+  <si>
+    <t>4334-521-017.SLDPRT</t>
+  </si>
+  <si>
+    <t>4334-602-002.SLDPRT</t>
   </si>
   <si>
     <t>4334-521-006.SLDASM</t>
@@ -1571,24 +1589,6 @@
     <t>VAC CUP - VC 160 (X1030055).SLDPRT</t>
   </si>
   <si>
-    <t>4334-521-007.SLDPRT</t>
-  </si>
-  <si>
-    <t>4334-602-001.SLDASM</t>
-  </si>
-  <si>
-    <t>4334-602-006.SLDPRT</t>
-  </si>
-  <si>
-    <t>4334-521-004.SLDPRT</t>
-  </si>
-  <si>
-    <t>4334-521-017.SLDPRT</t>
-  </si>
-  <si>
-    <t>4334-602-002.SLDPRT</t>
-  </si>
-  <si>
     <t>4334-510-005.SLDPRT</t>
   </si>
   <si>
@@ -1601,15 +1601,15 @@
     <t>4334-510-025.SLDPRT</t>
   </si>
   <si>
+    <t>4176-605-001.sldasm</t>
+  </si>
+  <si>
+    <t>4176-605-004.sldprt</t>
+  </si>
+  <si>
     <t>4176-605-002.sldasm</t>
   </si>
   <si>
-    <t>4176-605-001.sldasm</t>
-  </si>
-  <si>
-    <t>4176-605-004.sldprt</t>
-  </si>
-  <si>
     <t>motorgbox - Tandler box version.SLDASM</t>
   </si>
   <si>
@@ -1664,6 +1664,36 @@
     <t>BLOCK 5.SLDPRT</t>
   </si>
   <si>
+    <t>136967.SLDPRT</t>
+  </si>
+  <si>
+    <t>138172.SLDPRT</t>
+  </si>
+  <si>
+    <t>132126.SLDPRT</t>
+  </si>
+  <si>
+    <t>132880.SLDPRT</t>
+  </si>
+  <si>
+    <t>136954.SLDPRT</t>
+  </si>
+  <si>
+    <t>132124.SLDPRT</t>
+  </si>
+  <si>
+    <t>136953.SLDPRT</t>
+  </si>
+  <si>
+    <t>132120.SLDASM</t>
+  </si>
+  <si>
+    <t>132122.SLDPRT</t>
+  </si>
+  <si>
+    <t>138150.SLDPRT</t>
+  </si>
+  <si>
     <t>CUSTOM INSERTER LINK, 2040.SLDPRT</t>
   </si>
   <si>
@@ -1694,36 +1724,6 @@
     <t>CAM, OVERLOAD.SLDPRT</t>
   </si>
   <si>
-    <t>136967.SLDPRT</t>
-  </si>
-  <si>
-    <t>138172.SLDPRT</t>
-  </si>
-  <si>
-    <t>132126.SLDPRT</t>
-  </si>
-  <si>
-    <t>132880.SLDPRT</t>
-  </si>
-  <si>
-    <t>136954.SLDPRT</t>
-  </si>
-  <si>
-    <t>132124.SLDPRT</t>
-  </si>
-  <si>
-    <t>136953.SLDPRT</t>
-  </si>
-  <si>
-    <t>132120.SLDASM</t>
-  </si>
-  <si>
-    <t>132122.SLDPRT</t>
-  </si>
-  <si>
-    <t>138150.SLDPRT</t>
-  </si>
-  <si>
     <t>FJUMT-02-16_2.sldprt</t>
   </si>
   <si>
@@ -1739,27 +1739,27 @@
     <t>m6lock.SLDPRT</t>
   </si>
   <si>
+    <t>138766.SLDPRT</t>
+  </si>
+  <si>
+    <t>B14N038020XXXX.SLDPRT</t>
+  </si>
+  <si>
+    <t>071554 SPR LEE LC055G-12 STNLS.SLDPRT</t>
+  </si>
+  <si>
     <t>138307 BMP MIS LUST5-15.SLDPRT</t>
   </si>
   <si>
-    <t>B14N038020XXXX.SLDPRT</t>
+    <t>FLOOR STOCK 5-16 X 3-4 X .120 WASHER.SLDPRT</t>
+  </si>
+  <si>
+    <t>P00450034 CHN 2040N INR LNK.SLDPRT</t>
   </si>
   <si>
     <t>138491.SLDPRT</t>
   </si>
   <si>
-    <t>FLOOR STOCK 5-16 X 3-4 X .120 WASHER.SLDPRT</t>
-  </si>
-  <si>
-    <t>138766.SLDPRT</t>
-  </si>
-  <si>
-    <t>071554 SPR LEE LC055G-12 STNLS.SLDPRT</t>
-  </si>
-  <si>
-    <t>P00450034 CHN 2040N INR LNK.SLDPRT</t>
-  </si>
-  <si>
     <t>PUSHER FACE.SLDPRT</t>
   </si>
   <si>
@@ -1781,27 +1781,27 @@
     <t>R:\Doc\SolidWorks\VOLDEMORT\CONCEPT INSERTER PISTON\New concept 10th april</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\INSERTER PISTON PROPOSALS</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\VOLDEMORT\CONCEPT BARREL CAM INSERTER</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\INSERTER PISTON PROPOSALS</t>
-  </si>
-  <si>
     <t>R:\Doc\SolidWorks\VOLDEMORT\CONCEPT INSERTER PISTON\Modified _30_march</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\HS5044 ConAgra Foods (4x SFR Closers)</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Springs</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\BMP</t>
   </si>
   <si>
     <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\WSH-Washer</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\HS5044 ConAgra Foods (4x SFR Closers)</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Springs</t>
-  </si>
-  <si>
     <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Belts and Chains</t>
   </si>
   <si>
@@ -1835,30 +1835,30 @@
     <t>Spring Washer.sldprt</t>
   </si>
   <si>
+    <t>082793.SLDPRT</t>
+  </si>
+  <si>
     <t>082795.SLDPRT</t>
   </si>
   <si>
-    <t>082793.SLDPRT</t>
-  </si>
-  <si>
     <t>P0023504.SLDPRT</t>
   </si>
   <si>
     <t>007517P.SLDPRT</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\P6086 CYCLONE FRITO-LAY\P6062 Cyclone Bagmaker\Dancer Roll Assy</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\Compak II\Kliklok\FRONT POST SIDE 1</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\P6109 POLARIS II</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\Compak II\Kliklok\Compak</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\P6086 CYCLONE FRITO-LAY\P6062 Cyclone Bagmaker\Dancer Roll Assy</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\Compak II\Kliklok\FRONT POST SIDE 1</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\P6109 POLARIS II</t>
-  </si>
-  <si>
     <t>084477.SLDPRT</t>
   </si>
   <si>
@@ -1880,12 +1880,12 @@
     <t>084425.SLDPRT</t>
   </si>
   <si>
+    <t>P00450153Rev2.SLDPRT</t>
+  </si>
+  <si>
     <t>086811.SLDPRT</t>
   </si>
   <si>
-    <t>P00450153Rev2.SLDPRT</t>
-  </si>
-  <si>
     <t>K_76143_76143.sldasm</t>
   </si>
   <si>
@@ -1901,12 +1901,12 @@
     <t>74900.sldasm</t>
   </si>
   <si>
+    <t>KNUCKLE, 100MM.sldprt</t>
+  </si>
+  <si>
     <t>M4X6SCS.SLDPRT</t>
   </si>
   <si>
-    <t>KNUCKLE, 100MM.sldprt</t>
-  </si>
-  <si>
     <t>LOCK WASHER M8.SLDPRT</t>
   </si>
   <si>
@@ -1925,6 +1925,9 @@
     <t>2040 SPRG CLIP.sldprt</t>
   </si>
   <si>
+    <t>Layout.SLDASM</t>
+  </si>
+  <si>
     <t>123123.SLDPRT</t>
   </si>
   <si>
@@ -1934,54 +1937,51 @@
     <t>B7746075.SLDPRT</t>
   </si>
   <si>
-    <t>Layout.SLDASM</t>
-  </si>
-  <si>
     <t>R:\Doc\SolidWorks\K23626 Bosch Packaging VR</t>
   </si>
   <si>
     <t>R:\Doc\SolidWorks\K23547 CLIF BAR BAKING CO</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\HS5268 Joseph's Pasta MEC &amp; Screw Infeed</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\K23136 Unilever Field Kit</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\B Standards\B43 - Sprocket (A) Single- or Double-Pitch</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\B Standards\B77 - S.S Nut Bar, Custom</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\P6106 RIGHT ANGLE LUGLESS\DESIGN REVIEW</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\HS4836-4 TWO FLAP CLOSER (METRIC)</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\code daters\VideoJet</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Lasers\VIDEOJET</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\CP2947 Ryt-Way Slim Fast\FEEDER</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\HS5212 CONAGRA CAPT 200 KIT</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\P7004-196 VARI-RIGHT 2009</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\B Standards\B43 - Sprocket (A) Single- or Double-Pitch</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\B Standards\B77 - S.S Nut Bar, Custom</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\HS5212 CONAGRA CAPT 200 KIT</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\P6106 RIGHT ANGLE LUGLESS\DESIGN REVIEW</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\HS4836-4 TWO FLAP CLOSER (METRIC)</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\code daters\VideoJet</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\Lasers\VIDEOJET</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\CP2947 Ryt-Way Slim Fast\FEEDER</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\K23136 Unilever Field Kit</t>
-  </si>
-  <si>
     <t>R:\Doc\SolidWorks\GC550\15793-350 STARWHEEL DRIVE</t>
   </si>
   <si>
     <t>R:\Doc\SolidWorks\K22256-CMD</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\HS5268 Joseph's Pasta MEC &amp; Screw Infeed</t>
-  </si>
-  <si>
     <t>P00450154.SLDPRT</t>
   </si>
   <si>
@@ -1991,12 +1991,12 @@
     <t>C2040 cover plate.SLDPRT</t>
   </si>
   <si>
+    <t>Marbett-Cross Clamp-No.340.SLDPRT</t>
+  </si>
+  <si>
     <t>IGUS Bearing flange Type GTM.SLDPRT</t>
   </si>
   <si>
-    <t>Marbett-Cross Clamp-No.340.SLDPRT</t>
-  </si>
-  <si>
     <t>20170-420-37.SLDPRT</t>
   </si>
   <si>
@@ -2060,12 +2060,12 @@
     <t>KRE FA020 - M10 SPRING WASHER.sldprt</t>
   </si>
   <si>
+    <t>DIN-913 - M5x5.sldprt</t>
+  </si>
+  <si>
     <t>086145.SLDPRT</t>
   </si>
   <si>
-    <t>DIN-913 - M5x5.sldprt</t>
-  </si>
-  <si>
     <t>PART1.sldprt</t>
   </si>
   <si>
@@ -2075,6 +2075,12 @@
     <t>HEX SPACER.SLDPRT</t>
   </si>
   <si>
+    <t>bead8.sldprt</t>
+  </si>
+  <si>
+    <t>bead13.sldprt</t>
+  </si>
+  <si>
     <t>Shroud Round.sldprt</t>
   </si>
   <si>
@@ -2084,54 +2090,54 @@
     <t>KRE FA 082030 - M8 x 30 SKT CAP SCREW.sldprt</t>
   </si>
   <si>
-    <t>bead13.sldprt</t>
-  </si>
-  <si>
-    <t>bead8.sldprt</t>
-  </si>
-  <si>
     <t>BRACKET.SLDPRT</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\Compak II\Kliklok\Product Settler</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\P6156 PROJECT APACHE\Former Ref</t>
   </si>
   <si>
     <t>R:\Doc\SolidWorks\P6184 Frontier Bagger\KW P3 RND 58mm - Design Confirmation Files</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\Compak II\Kliklok\Product Settler</t>
-  </si>
-  <si>
     <t>R:\Doc\SolidWorks\HS5037 SUGAR CREEK</t>
   </si>
   <si>
     <t>R:\Doc\SolidWorks\P6156 PROJECT APACHE\KW Oval Assy 350mm 22022011</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\K22946 BPA VariPitch Load Conveyor\festo</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\Mainar\Infeed_Assy</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\K22946 BPA VariPitch Load Conveyor\festo</t>
-  </si>
-  <si>
     <t>R:\Doc\SolidWorks\Woodman R &amp; D Parts</t>
   </si>
   <si>
     <t>R:\Doc\SolidWorks\K22022</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\Compak II\Kliklok\Drive arm</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\P6184 Frontier Bagger\KW P3 RND 169mm LRL PA - Design Confirmation Files</t>
   </si>
   <si>
     <t>R:\Doc\SolidWorks\P6156 PROJECT APACHE\Former Ref\KW AP OVL 350mm ALU - Assy</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\Compak II\Kliklok\Drive arm</t>
-  </si>
-  <si>
     <t>R:\Doc\SolidWorks\A01xx McKEE VARI-RIGHT</t>
   </si>
   <si>
+    <t>4320-501-005.sldasm</t>
+  </si>
+  <si>
+    <t>4176-812-010.SLDPRT</t>
+  </si>
+  <si>
     <t>20281-100-01.SLDPRT</t>
   </si>
   <si>
@@ -2144,6 +2150,9 @@
     <t>20281-304-00.SLDASM</t>
   </si>
   <si>
+    <t>M6 STRAIGHT GREASE NIPPLE.SLDPRT</t>
+  </si>
+  <si>
     <t>20281-320-21.SLDPRT</t>
   </si>
   <si>
@@ -2153,106 +2162,118 @@
     <t>Sensor IFM  OC5031.SLDPRT</t>
   </si>
   <si>
-    <t>M6 STRAIGHT GREASE NIPPLE.SLDPRT</t>
-  </si>
-  <si>
     <t>Marbett Guide Rail Clamp Pt.82P Code 618491 (X).SLDPRT</t>
   </si>
   <si>
     <t>M8 WELDSTUD.SLDPRT</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X13 Fasteners</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\H HOPLEY STUFF\20281 Turret Loader</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X11 Lubrication</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\HS5041 REQUEST FOODS\RTS</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\KIL Stuff\X13 Fasteners</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\H HOPLEY STUFF\20281 Turret Loader</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\HS5041 REQUEST FOODS\RTS</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X11 Lubrication</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\SMALL FOOTPRINT ROTARY\Standard Parts\Palette Parts\X13 Fasteners</t>
-  </si>
-  <si>
-    <t>4320-501-005.sldasm</t>
-  </si>
-  <si>
-    <t>4176-812-010.SLDPRT</t>
+    <t>tray.SLDPRT</t>
   </si>
   <si>
     <t>Marbett Foot X0540026 Pt.170 Code 62274.SLDPRT</t>
   </si>
   <si>
-    <t>tray.SLDPRT</t>
+    <t>R:\Doc\SolidWorks\EZbox</t>
   </si>
   <si>
     <t>R:\Doc\SolidWorks\TMII Certipak\CP2958 Heinz</t>
   </si>
   <si>
-    <t>R:\Doc\SolidWorks\EZbox</t>
+    <t>63505_4452K166.sldprt</t>
+  </si>
+  <si>
+    <t>VXZ240GGB.step_DIN.sldprt</t>
+  </si>
+  <si>
+    <t>Y30T_Y3035D Bracket_30.sldprt</t>
+  </si>
+  <si>
+    <t>Y30T_Y3035D Bracket_30T.sldprt</t>
+  </si>
+  <si>
+    <t>KQG2L07-N03S.step_KQG2 Male Elbow_07-N03.sldprt</t>
+  </si>
+  <si>
+    <t>VHS30-N03B-Z.step_VHS Knob Mounting_30.sldprt</t>
+  </si>
+  <si>
+    <t>VHS30-N03B-Z.step_VHS Knob_30.sldprt</t>
+  </si>
+  <si>
+    <t>49042.sldprt</t>
+  </si>
+  <si>
+    <t>VXZ240GGB.step_SUS_Body_4G.sldprt</t>
+  </si>
+  <si>
+    <t>Y30T_Y3035D Interface_30.sldprt</t>
+  </si>
+  <si>
+    <t>VHS30-N03B-Z.step_VHS Body_30.sldprt</t>
+  </si>
+  <si>
+    <t>VXZ240GGB.step_Solenoid_Coil_3.sldprt</t>
+  </si>
+  <si>
+    <t>552252 UOS-1.sldprt</t>
+  </si>
+  <si>
+    <t>374264 MS6.sldprt</t>
+  </si>
+  <si>
+    <t>376409 MS6-MV---(2).sldprt</t>
+  </si>
+  <si>
+    <t>B14S075.SLDPRT</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\FLT-FILTER</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\P6184 Frontier Bagger\158065 Pneumatics</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\HS5214 Nestle Solon Infeed\AC30 VALVE STACK</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\PNA-Pneumatic Assembly\158355 REG FST 13104480 CAT 3 MAIN AIR PREP ASSEMBLY</t>
+  </si>
+  <si>
+    <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\CYL - Cylinders and Struts</t>
+  </si>
+  <si>
+    <t>P0038265 BRG FAF REP5M7;.SLDPRT</t>
   </si>
   <si>
     <t>P0038294 BRG NCE 1623DC.SLDPRT</t>
   </si>
   <si>
-    <t>P0038265 BRG FAF REP5M7;.SLDPRT</t>
-  </si>
-  <si>
     <t>050185P BPB MRC CPB100ZMG.SLDPRT</t>
   </si>
   <si>
     <t>R:\Doc\SolidWorks\GC550\15793-300 FEEDER</t>
   </si>
   <si>
+    <t>R:\Doc\SolidWorks\GC550\15793-1202 MAIN CONV</t>
+  </si>
+  <si>
     <t>R:\Doc\SolidWorks\SolidWorks Palette\Palette Parts\BPB-Bearing Pillow Block</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\GC550\15793-1202 MAIN CONV</t>
-  </si>
-  <si>
-    <t>72866.sldprt</t>
-  </si>
-  <si>
-    <t>76115.sldprt</t>
-  </si>
-  <si>
-    <t>69824_74718_30W Gasket.sldprt</t>
-  </si>
-  <si>
-    <t>72863.sldprt</t>
-  </si>
-  <si>
-    <t>76090.sldprt</t>
-  </si>
-  <si>
-    <t>68938.sldprt</t>
-  </si>
-  <si>
-    <t>D912_K_M 4x20.sldprt</t>
-  </si>
-  <si>
-    <t>F-DIN7991_M5x10.1.sldprt</t>
-  </si>
-  <si>
-    <t>100939.sldprt</t>
-  </si>
-  <si>
-    <t>Entex536.sldprt</t>
-  </si>
-  <si>
-    <t>F-DIN912_M4x10.1.sldprt</t>
-  </si>
-  <si>
-    <t>F-DIN912_M4x12.1.1.sldprt</t>
-  </si>
-  <si>
-    <t>F-DIN912_M6x10.1.sldprt</t>
-  </si>
-  <si>
-    <t>R:\Doc\SolidWorks\P6156 PROJECT APACHE\MARKEM ENCODER</t>
   </si>
 </sst>
 </file>
@@ -3222,7 +3243,7 @@
         <v>111</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3239,7 +3260,7 @@
         <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3256,7 +3277,7 @@
         <v>111</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3273,7 +3294,7 @@
         <v>111</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3290,7 +3311,7 @@
         <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3307,7 +3328,7 @@
         <v>111</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3324,7 +3345,7 @@
         <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3341,7 +3362,7 @@
         <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3358,7 +3379,7 @@
         <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3375,7 +3396,7 @@
         <v>112</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3392,7 +3413,7 @@
         <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3409,7 +3430,7 @@
         <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3426,7 +3447,7 @@
         <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3443,7 +3464,7 @@
         <v>112</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3460,7 +3481,7 @@
         <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3477,7 +3498,7 @@
         <v>113</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3494,7 +3515,7 @@
         <v>113</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3511,7 +3532,7 @@
         <v>113</v>
       </c>
       <c r="E53" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3528,7 +3549,7 @@
         <v>113</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3545,7 +3566,7 @@
         <v>113</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3562,7 +3583,7 @@
         <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3579,7 +3600,7 @@
         <v>113</v>
       </c>
       <c r="E57" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3596,7 +3617,7 @@
         <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3613,7 +3634,7 @@
         <v>114</v>
       </c>
       <c r="E59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3630,7 +3651,7 @@
         <v>114</v>
       </c>
       <c r="E60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3647,7 +3668,7 @@
         <v>114</v>
       </c>
       <c r="E61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3664,7 +3685,7 @@
         <v>114</v>
       </c>
       <c r="E62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3681,7 +3702,7 @@
         <v>114</v>
       </c>
       <c r="E63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3698,7 +3719,7 @@
         <v>114</v>
       </c>
       <c r="E64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3715,7 +3736,7 @@
         <v>114</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3732,7 +3753,7 @@
         <v>114</v>
       </c>
       <c r="E66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3749,7 +3770,7 @@
         <v>114</v>
       </c>
       <c r="E67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3766,7 +3787,7 @@
         <v>114</v>
       </c>
       <c r="E68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3783,7 +3804,7 @@
         <v>114</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3800,7 +3821,7 @@
         <v>114</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3817,7 +3838,7 @@
         <v>114</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3834,7 +3855,7 @@
         <v>114</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3851,7 +3872,7 @@
         <v>114</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3868,7 +3889,7 @@
         <v>114</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3885,7 +3906,7 @@
         <v>114</v>
       </c>
       <c r="E75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3902,7 +3923,7 @@
         <v>114</v>
       </c>
       <c r="E76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3919,7 +3940,7 @@
         <v>115</v>
       </c>
       <c r="E77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3936,7 +3957,7 @@
         <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3953,7 +3974,7 @@
         <v>115</v>
       </c>
       <c r="E79" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3970,7 +3991,7 @@
         <v>115</v>
       </c>
       <c r="E80" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3987,7 +4008,7 @@
         <v>115</v>
       </c>
       <c r="E81" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4004,7 +4025,7 @@
         <v>115</v>
       </c>
       <c r="E82" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4021,7 +4042,7 @@
         <v>115</v>
       </c>
       <c r="E83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4038,7 +4059,7 @@
         <v>115</v>
       </c>
       <c r="E84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4174,12 +4195,12 @@
         <v>117</v>
       </c>
       <c r="E92" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93" t="s">
         <v>95</v>
@@ -4191,7 +4212,7 @@
         <v>117</v>
       </c>
       <c r="E93" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4205,15 +4226,15 @@
         <v>110</v>
       </c>
       <c r="D94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E94" t="s">
         <v>118</v>
-      </c>
-      <c r="E94" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="s">
         <v>97</v>
@@ -4225,7 +4246,7 @@
         <v>118</v>
       </c>
       <c r="E95" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4264,7 +4285,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" t="s">
         <v>100</v>
@@ -4276,12 +4297,12 @@
         <v>120</v>
       </c>
       <c r="E98" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B99" t="s">
         <v>101</v>
@@ -4290,15 +4311,15 @@
         <v>110</v>
       </c>
       <c r="D99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E99" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="s">
         <v>102</v>
@@ -4315,7 +4336,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B101" t="s">
         <v>103</v>
@@ -4327,7 +4348,7 @@
         <v>121</v>
       </c>
       <c r="E101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4344,7 +4365,7 @@
         <v>122</v>
       </c>
       <c r="E102" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4375,7 +4396,7 @@
         <v>110</v>
       </c>
       <c r="D104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E104" t="s">
         <v>147</v>
@@ -4392,7 +4413,7 @@
         <v>110</v>
       </c>
       <c r="D105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E105" t="s">
         <v>148</v>
@@ -4409,7 +4430,7 @@
         <v>110</v>
       </c>
       <c r="D106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E106" t="s">
         <v>149</v>
@@ -4426,7 +4447,7 @@
         <v>110</v>
       </c>
       <c r="D107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E107" t="s">
         <v>150</v>
@@ -4467,7 +4488,7 @@
         <v>599</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
         <v>115</v>
@@ -4511,13 +4532,13 @@
         <v>600</v>
       </c>
       <c r="C2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
-        <v>325</v>
+        <v>604</v>
       </c>
       <c r="E2" t="s">
-        <v>605</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4528,13 +4549,13 @@
         <v>601</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D3" t="s">
-        <v>325</v>
+        <v>604</v>
       </c>
       <c r="E3" t="s">
-        <v>605</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4545,13 +4566,13 @@
         <v>602</v>
       </c>
       <c r="C4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E4" t="s">
         <v>307</v>
-      </c>
-      <c r="E4" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4562,10 +4583,10 @@
         <v>603</v>
       </c>
       <c r="C5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D5" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E5" t="s">
         <v>607</v>
@@ -4731,7 +4752,7 @@
         <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4748,7 +4769,7 @@
         <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>641</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4850,7 +4871,7 @@
         <v>635</v>
       </c>
       <c r="E16" t="s">
-        <v>472</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4867,7 +4888,7 @@
         <v>635</v>
       </c>
       <c r="E17" t="s">
-        <v>643</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4884,7 +4905,7 @@
         <v>472</v>
       </c>
       <c r="E18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4901,7 +4922,7 @@
         <v>472</v>
       </c>
       <c r="E19" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4918,7 +4939,7 @@
         <v>472</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4932,7 +4953,7 @@
         <v>634</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
         <v>589</v>
@@ -5078,10 +5099,10 @@
         <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5095,10 +5116,10 @@
         <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5112,10 +5133,10 @@
         <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5129,10 +5150,10 @@
         <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5146,10 +5167,10 @@
         <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5214,7 +5235,7 @@
         <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
         <v>150</v>
@@ -5248,7 +5269,7 @@
         <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
         <v>663</v>
@@ -5289,7 +5310,7 @@
         <v>664</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>669</v>
@@ -5306,7 +5327,7 @@
         <v>665</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
         <v>669</v>
@@ -5323,7 +5344,7 @@
         <v>666</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
         <v>669</v>
@@ -5340,7 +5361,7 @@
         <v>667</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
         <v>669</v>
@@ -5357,13 +5378,13 @@
         <v>668</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
         <v>579</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5506,7 +5527,7 @@
         <v>307</v>
       </c>
       <c r="D8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E8" t="s">
         <v>693</v>
@@ -5523,7 +5544,7 @@
         <v>307</v>
       </c>
       <c r="D9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E9" t="s">
         <v>693</v>
@@ -5540,7 +5561,7 @@
         <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E10" t="s">
         <v>694</v>
@@ -5577,7 +5598,7 @@
         <v>686</v>
       </c>
       <c r="E12" t="s">
-        <v>687</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5608,10 +5629,10 @@
         <v>307</v>
       </c>
       <c r="D14" t="s">
+        <v>687</v>
+      </c>
+      <c r="E14" t="s">
         <v>688</v>
-      </c>
-      <c r="E14" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5654,6 +5675,67 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -5680,16 +5762,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5697,16 +5779,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5714,16 +5796,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5731,16 +5813,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5748,16 +5830,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5765,16 +5847,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5782,16 +5864,16 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
         <v>123</v>
-      </c>
-      <c r="D8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5799,16 +5881,16 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>712</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5816,16 +5898,16 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5833,77 +5915,16 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E11" t="s">
-        <v>713</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
         <v>715</v>
-      </c>
-      <c r="C3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -5941,13 +5962,13 @@
         <v>716</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>718</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5958,13 +5979,13 @@
         <v>717</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>718</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>719</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5974,7 +5995,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6002,47 +6023,268 @@
         <v>720</v>
       </c>
       <c r="C2" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="E2" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>721</v>
       </c>
       <c r="C3" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="E3" t="s">
-        <v>644</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>722</v>
       </c>
       <c r="C4" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
       <c r="D4" t="s">
+        <v>736</v>
+      </c>
+      <c r="E4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>723</v>
+      </c>
+      <c r="C5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>724</v>
       </c>
-      <c r="E4" t="s">
-        <v>646</v>
+      <c r="C6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" t="s">
+        <v>736</v>
+      </c>
+      <c r="E6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>725</v>
+      </c>
+      <c r="C7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" t="s">
+        <v>736</v>
+      </c>
+      <c r="E7" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>726</v>
+      </c>
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" t="s">
+        <v>736</v>
+      </c>
+      <c r="E8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>727</v>
+      </c>
+      <c r="C9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" t="s">
+        <v>736</v>
+      </c>
+      <c r="E9" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>728</v>
+      </c>
+      <c r="C10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" t="s">
+        <v>736</v>
+      </c>
+      <c r="E10" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>729</v>
+      </c>
+      <c r="C11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" t="s">
+        <v>736</v>
+      </c>
+      <c r="E11" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>730</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" t="s">
+        <v>736</v>
+      </c>
+      <c r="E12" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>731</v>
+      </c>
+      <c r="C13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" t="s">
+        <v>736</v>
+      </c>
+      <c r="E13" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>732</v>
+      </c>
+      <c r="C14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" t="s">
+        <v>737</v>
+      </c>
+      <c r="E14" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>733</v>
+      </c>
+      <c r="C15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" t="s">
+        <v>737</v>
+      </c>
+      <c r="E15" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>734</v>
+      </c>
+      <c r="C16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" t="s">
+        <v>737</v>
+      </c>
+      <c r="E16" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>735</v>
+      </c>
+      <c r="C17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" t="s">
+        <v>473</v>
+      </c>
+      <c r="E17" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -6083,7 +6325,7 @@
         <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
         <v>220</v>
@@ -6100,7 +6342,7 @@
         <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
         <v>220</v>
@@ -6117,7 +6359,7 @@
         <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
         <v>220</v>
@@ -6134,7 +6376,7 @@
         <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
         <v>220</v>
@@ -6151,7 +6393,7 @@
         <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
         <v>220</v>
@@ -6168,7 +6410,7 @@
         <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
         <v>220</v>
@@ -6185,7 +6427,7 @@
         <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
         <v>220</v>
@@ -6202,7 +6444,7 @@
         <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
         <v>220</v>
@@ -6219,7 +6461,7 @@
         <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
         <v>220</v>
@@ -6236,7 +6478,7 @@
         <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
         <v>220</v>
@@ -6253,7 +6495,7 @@
         <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
         <v>220</v>
@@ -6270,7 +6512,7 @@
         <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
         <v>220</v>
@@ -6287,7 +6529,7 @@
         <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
         <v>220</v>
@@ -6304,7 +6546,7 @@
         <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
         <v>220</v>
@@ -6321,7 +6563,7 @@
         <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
         <v>220</v>
@@ -6338,7 +6580,7 @@
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
         <v>220</v>
@@ -6355,7 +6597,7 @@
         <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
         <v>220</v>
@@ -6372,7 +6614,7 @@
         <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
         <v>220</v>
@@ -6389,7 +6631,7 @@
         <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
         <v>220</v>
@@ -6406,7 +6648,7 @@
         <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
         <v>220</v>
@@ -6423,7 +6665,7 @@
         <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
         <v>220</v>
@@ -6440,7 +6682,7 @@
         <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
         <v>213</v>
@@ -6457,7 +6699,7 @@
         <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
         <v>213</v>
@@ -6474,7 +6716,7 @@
         <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
         <v>213</v>
@@ -6491,7 +6733,7 @@
         <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
         <v>213</v>
@@ -6508,7 +6750,7 @@
         <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
         <v>213</v>
@@ -6525,7 +6767,7 @@
         <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
         <v>213</v>
@@ -6542,7 +6784,7 @@
         <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
         <v>213</v>
@@ -6559,7 +6801,7 @@
         <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
         <v>213</v>
@@ -6576,7 +6818,7 @@
         <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
         <v>213</v>
@@ -6593,7 +6835,7 @@
         <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
         <v>213</v>
@@ -6610,7 +6852,7 @@
         <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
         <v>213</v>
@@ -6627,7 +6869,7 @@
         <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
         <v>213</v>
@@ -6644,7 +6886,7 @@
         <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E35" t="s">
         <v>221</v>
@@ -6661,7 +6903,7 @@
         <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
         <v>221</v>
@@ -6678,10 +6920,10 @@
         <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6695,10 +6937,10 @@
         <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>216</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6712,10 +6954,10 @@
         <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6729,10 +6971,10 @@
         <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -7035,7 +7277,7 @@
         <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s">
         <v>115</v>
@@ -7052,7 +7294,7 @@
         <v>113</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E59" t="s">
         <v>227</v>
@@ -7069,7 +7311,7 @@
         <v>113</v>
       </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="E60" t="s">
         <v>228</v>
@@ -7086,7 +7328,7 @@
         <v>113</v>
       </c>
       <c r="D61" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="E61" t="s">
         <v>229</v>
@@ -7133,7 +7375,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7158,220 +7400,50 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>403</v>
       </c>
       <c r="D2" t="s">
-        <v>313</v>
+        <v>744</v>
       </c>
       <c r="E2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>403</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>744</v>
       </c>
       <c r="E3" t="s">
-        <v>642</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="C4" t="s">
-        <v>305</v>
+        <v>403</v>
       </c>
       <c r="D4" t="s">
-        <v>313</v>
+        <v>647</v>
       </c>
       <c r="E4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>729</v>
-      </c>
-      <c r="C5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E5" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>730</v>
-      </c>
-      <c r="C6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" t="s">
-        <v>313</v>
-      </c>
-      <c r="E6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>731</v>
-      </c>
-      <c r="C7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E7" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>732</v>
-      </c>
-      <c r="C8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E8" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>733</v>
-      </c>
-      <c r="C9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D9" t="s">
-        <v>320</v>
-      </c>
-      <c r="E9" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>734</v>
-      </c>
-      <c r="C10" t="s">
-        <v>305</v>
-      </c>
-      <c r="D10" t="s">
-        <v>320</v>
-      </c>
-      <c r="E10" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>735</v>
-      </c>
-      <c r="C11" t="s">
-        <v>305</v>
-      </c>
-      <c r="D11" t="s">
-        <v>320</v>
-      </c>
-      <c r="E11" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>736</v>
-      </c>
-      <c r="C12" t="s">
-        <v>305</v>
-      </c>
-      <c r="D12" t="s">
-        <v>320</v>
-      </c>
-      <c r="E12" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>737</v>
-      </c>
-      <c r="C13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E13" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>738</v>
-      </c>
-      <c r="C14" t="s">
-        <v>305</v>
-      </c>
-      <c r="D14" t="s">
-        <v>320</v>
-      </c>
-      <c r="E14" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -8333,7 +8405,7 @@
         <v>307</v>
       </c>
       <c r="E56" t="s">
-        <v>322</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -8350,7 +8422,7 @@
         <v>307</v>
       </c>
       <c r="E57" t="s">
-        <v>217</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -8401,7 +8473,7 @@
         <v>308</v>
       </c>
       <c r="E60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -8435,7 +8507,7 @@
         <v>309</v>
       </c>
       <c r="E62" t="s">
-        <v>326</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -8452,7 +8524,7 @@
         <v>310</v>
       </c>
       <c r="E63" t="s">
-        <v>120</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -8466,7 +8538,7 @@
         <v>303</v>
       </c>
       <c r="D64" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E64" t="s">
         <v>327</v>
@@ -8643,13 +8715,13 @@
         <v>336</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D2" t="s">
         <v>402</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8660,13 +8732,13 @@
         <v>337</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D3" t="s">
         <v>402</v>
       </c>
       <c r="E3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8677,13 +8749,13 @@
         <v>338</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D4" t="s">
         <v>402</v>
       </c>
       <c r="E4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8694,13 +8766,13 @@
         <v>339</v>
       </c>
       <c r="C5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D5" t="s">
         <v>402</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8711,13 +8783,13 @@
         <v>340</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D6" t="s">
         <v>402</v>
       </c>
       <c r="E6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8728,13 +8800,13 @@
         <v>341</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D7" t="s">
         <v>402</v>
       </c>
       <c r="E7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8745,13 +8817,13 @@
         <v>342</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D8" t="s">
         <v>402</v>
       </c>
       <c r="E8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8762,13 +8834,13 @@
         <v>343</v>
       </c>
       <c r="C9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D9" t="s">
         <v>402</v>
       </c>
       <c r="E9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8779,13 +8851,13 @@
         <v>344</v>
       </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D10" t="s">
         <v>402</v>
       </c>
       <c r="E10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8796,13 +8868,13 @@
         <v>345</v>
       </c>
       <c r="C11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D11" t="s">
         <v>402</v>
       </c>
       <c r="E11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8813,13 +8885,13 @@
         <v>346</v>
       </c>
       <c r="C12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D12" t="s">
         <v>402</v>
       </c>
       <c r="E12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8830,13 +8902,13 @@
         <v>347</v>
       </c>
       <c r="C13" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D13" t="s">
         <v>402</v>
       </c>
       <c r="E13" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8847,13 +8919,13 @@
         <v>348</v>
       </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D14" t="s">
         <v>402</v>
       </c>
       <c r="E14" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8864,13 +8936,13 @@
         <v>349</v>
       </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D15" t="s">
         <v>402</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8881,13 +8953,13 @@
         <v>350</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D16" t="s">
         <v>402</v>
       </c>
       <c r="E16" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8898,13 +8970,13 @@
         <v>351</v>
       </c>
       <c r="C17" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D17" t="s">
         <v>402</v>
       </c>
       <c r="E17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8915,13 +8987,13 @@
         <v>352</v>
       </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D18" t="s">
         <v>402</v>
       </c>
       <c r="E18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8932,13 +9004,13 @@
         <v>353</v>
       </c>
       <c r="C19" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D19" t="s">
         <v>402</v>
       </c>
       <c r="E19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8949,7 +9021,7 @@
         <v>354</v>
       </c>
       <c r="C20" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D20" t="s">
         <v>402</v>
@@ -8966,7 +9038,7 @@
         <v>355</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D21" t="s">
         <v>402</v>
@@ -8983,7 +9055,7 @@
         <v>356</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D22" t="s">
         <v>402</v>
@@ -9000,7 +9072,7 @@
         <v>357</v>
       </c>
       <c r="C23" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D23" t="s">
         <v>402</v>
@@ -9017,7 +9089,7 @@
         <v>358</v>
       </c>
       <c r="C24" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D24" t="s">
         <v>402</v>
@@ -9034,7 +9106,7 @@
         <v>359</v>
       </c>
       <c r="C25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D25" t="s">
         <v>402</v>
@@ -9051,7 +9123,7 @@
         <v>360</v>
       </c>
       <c r="C26" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D26" t="s">
         <v>402</v>
@@ -9068,7 +9140,7 @@
         <v>361</v>
       </c>
       <c r="C27" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D27" t="s">
         <v>402</v>
@@ -9085,7 +9157,7 @@
         <v>362</v>
       </c>
       <c r="C28" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D28" t="s">
         <v>402</v>
@@ -9102,7 +9174,7 @@
         <v>363</v>
       </c>
       <c r="C29" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D29" t="s">
         <v>402</v>
@@ -9119,7 +9191,7 @@
         <v>364</v>
       </c>
       <c r="C30" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D30" t="s">
         <v>402</v>
@@ -9136,13 +9208,13 @@
         <v>365</v>
       </c>
       <c r="C31" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D31" t="s">
         <v>402</v>
       </c>
       <c r="E31" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -9153,13 +9225,13 @@
         <v>366</v>
       </c>
       <c r="C32" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D32" t="s">
         <v>402</v>
       </c>
       <c r="E32" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9170,13 +9242,13 @@
         <v>367</v>
       </c>
       <c r="C33" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D33" t="s">
         <v>402</v>
       </c>
       <c r="E33" t="s">
-        <v>314</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9187,13 +9259,13 @@
         <v>368</v>
       </c>
       <c r="C34" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D34" t="s">
         <v>402</v>
       </c>
       <c r="E34" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -9204,13 +9276,13 @@
         <v>369</v>
       </c>
       <c r="C35" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D35" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E35" t="s">
-        <v>404</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -9221,13 +9293,13 @@
         <v>370</v>
       </c>
       <c r="C36" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D36" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E36" t="s">
-        <v>404</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -9238,13 +9310,13 @@
         <v>371</v>
       </c>
       <c r="C37" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D37" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E37" t="s">
-        <v>404</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -9255,13 +9327,13 @@
         <v>372</v>
       </c>
       <c r="C38" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D38" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E38" t="s">
-        <v>325</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -9272,13 +9344,13 @@
         <v>373</v>
       </c>
       <c r="C39" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D39" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E39" t="s">
-        <v>325</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -9289,13 +9361,13 @@
         <v>374</v>
       </c>
       <c r="C40" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D40" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E40" t="s">
-        <v>325</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -9306,10 +9378,10 @@
         <v>375</v>
       </c>
       <c r="C41" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D41" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E41" t="s">
         <v>411</v>
@@ -9323,13 +9395,13 @@
         <v>376</v>
       </c>
       <c r="C42" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D42" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E42" t="s">
-        <v>311</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -9340,13 +9412,13 @@
         <v>377</v>
       </c>
       <c r="C43" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D43" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E43" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -9357,13 +9429,13 @@
         <v>378</v>
       </c>
       <c r="C44" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D44" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E44" t="s">
-        <v>413</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -9374,7 +9446,7 @@
         <v>379</v>
       </c>
       <c r="C45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D45" t="s">
         <v>403</v>
@@ -9391,7 +9463,7 @@
         <v>380</v>
       </c>
       <c r="C46" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D46" t="s">
         <v>403</v>
@@ -9408,7 +9480,7 @@
         <v>381</v>
       </c>
       <c r="C47" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D47" t="s">
         <v>403</v>
@@ -9425,7 +9497,7 @@
         <v>382</v>
       </c>
       <c r="C48" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D48" t="s">
         <v>403</v>
@@ -9442,7 +9514,7 @@
         <v>383</v>
       </c>
       <c r="C49" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D49" t="s">
         <v>403</v>
@@ -9459,7 +9531,7 @@
         <v>384</v>
       </c>
       <c r="C50" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D50" t="s">
         <v>403</v>
@@ -9476,7 +9548,7 @@
         <v>385</v>
       </c>
       <c r="C51" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D51" t="s">
         <v>403</v>
@@ -9493,7 +9565,7 @@
         <v>386</v>
       </c>
       <c r="C52" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D52" t="s">
         <v>403</v>
@@ -9510,7 +9582,7 @@
         <v>387</v>
       </c>
       <c r="C53" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D53" t="s">
         <v>403</v>
@@ -9527,7 +9599,7 @@
         <v>388</v>
       </c>
       <c r="C54" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D54" t="s">
         <v>403</v>
@@ -9544,13 +9616,13 @@
         <v>389</v>
       </c>
       <c r="C55" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D55" t="s">
         <v>403</v>
       </c>
       <c r="E55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -9561,13 +9633,13 @@
         <v>390</v>
       </c>
       <c r="C56" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D56" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E56" t="s">
-        <v>307</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -9578,13 +9650,13 @@
         <v>391</v>
       </c>
       <c r="C57" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D57" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E57" t="s">
-        <v>409</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -9595,10 +9667,10 @@
         <v>392</v>
       </c>
       <c r="C58" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D58" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E58" t="s">
         <v>415</v>
@@ -9612,10 +9684,10 @@
         <v>393</v>
       </c>
       <c r="C59" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D59" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E59" t="s">
         <v>416</v>
@@ -9629,7 +9701,7 @@
         <v>394</v>
       </c>
       <c r="C60" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D60" t="s">
         <v>404</v>
@@ -9646,7 +9718,7 @@
         <v>395</v>
       </c>
       <c r="C61" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D61" t="s">
         <v>404</v>
@@ -9663,7 +9735,7 @@
         <v>396</v>
       </c>
       <c r="C62" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D62" t="s">
         <v>405</v>
@@ -9680,7 +9752,7 @@
         <v>397</v>
       </c>
       <c r="C63" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D63" t="s">
         <v>406</v>
@@ -9697,7 +9769,7 @@
         <v>398</v>
       </c>
       <c r="C64" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D64" t="s">
         <v>406</v>
@@ -9714,7 +9786,7 @@
         <v>399</v>
       </c>
       <c r="C65" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D65" t="s">
         <v>406</v>
@@ -9731,7 +9803,7 @@
         <v>400</v>
       </c>
       <c r="C66" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D66" t="s">
         <v>406</v>
@@ -9748,7 +9820,7 @@
         <v>401</v>
       </c>
       <c r="C67" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D67" t="s">
         <v>407</v>
@@ -9792,10 +9864,10 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
         <v>469</v>
@@ -9809,10 +9881,10 @@
         <v>422</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
         <v>469</v>
@@ -9826,10 +9898,10 @@
         <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
         <v>469</v>
@@ -9843,10 +9915,10 @@
         <v>424</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
         <v>469</v>
@@ -9860,10 +9932,10 @@
         <v>425</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
         <v>469</v>
@@ -9877,10 +9949,10 @@
         <v>426</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
         <v>469</v>
@@ -9894,10 +9966,10 @@
         <v>427</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
         <v>469</v>
@@ -9911,10 +9983,10 @@
         <v>428</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
         <v>469</v>
@@ -9928,10 +10000,10 @@
         <v>429</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
         <v>469</v>
@@ -9945,10 +10017,10 @@
         <v>430</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
         <v>469</v>
@@ -9962,10 +10034,10 @@
         <v>431</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
         <v>469</v>
@@ -9979,10 +10051,10 @@
         <v>432</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
         <v>469</v>
@@ -9996,10 +10068,10 @@
         <v>433</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
         <v>469</v>
@@ -10013,10 +10085,10 @@
         <v>434</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
         <v>469</v>
@@ -10030,10 +10102,10 @@
         <v>435</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
         <v>469</v>
@@ -10047,10 +10119,10 @@
         <v>436</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
         <v>469</v>
@@ -10064,10 +10136,10 @@
         <v>437</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
         <v>469</v>
@@ -10081,10 +10153,10 @@
         <v>438</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
         <v>469</v>
@@ -10098,10 +10170,10 @@
         <v>439</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
         <v>469</v>
@@ -10115,10 +10187,10 @@
         <v>440</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
         <v>469</v>
@@ -10132,10 +10204,10 @@
         <v>441</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
         <v>469</v>
@@ -10149,10 +10221,10 @@
         <v>442</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
         <v>470</v>
@@ -10166,10 +10238,10 @@
         <v>443</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
         <v>470</v>
@@ -10183,10 +10255,10 @@
         <v>444</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
         <v>470</v>
@@ -10200,10 +10272,10 @@
         <v>445</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
         <v>470</v>
@@ -10217,10 +10289,10 @@
         <v>446</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
         <v>470</v>
@@ -10234,10 +10306,10 @@
         <v>447</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
         <v>470</v>
@@ -10251,10 +10323,10 @@
         <v>448</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
         <v>471</v>
@@ -10268,10 +10340,10 @@
         <v>449</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
         <v>471</v>
@@ -10285,10 +10357,10 @@
         <v>450</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
         <v>471</v>
@@ -10302,10 +10374,10 @@
         <v>451</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
         <v>472</v>
@@ -10319,10 +10391,10 @@
         <v>452</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
         <v>472</v>
@@ -10336,10 +10408,10 @@
         <v>453</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
         <v>472</v>
@@ -10353,10 +10425,10 @@
         <v>454</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
         <v>473</v>
@@ -10370,10 +10442,10 @@
         <v>455</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
         <v>473</v>
@@ -10387,10 +10459,10 @@
         <v>456</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
         <v>474</v>
@@ -10404,10 +10476,10 @@
         <v>457</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
         <v>474</v>
@@ -10421,10 +10493,10 @@
         <v>458</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
         <v>475</v>
@@ -10438,10 +10510,10 @@
         <v>459</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
         <v>476</v>
@@ -10455,10 +10527,10 @@
         <v>460</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
         <v>477</v>
@@ -10472,13 +10544,13 @@
         <v>461</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>403</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -10489,13 +10561,13 @@
         <v>462</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>478</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -10506,10 +10578,10 @@
         <v>463</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s">
         <v>479</v>
@@ -10523,13 +10595,13 @@
         <v>464</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E45" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -10540,13 +10612,13 @@
         <v>465</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -10557,10 +10629,10 @@
         <v>466</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E47" t="s">
         <v>480</v>
@@ -10574,10 +10646,10 @@
         <v>467</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
         <v>481</v>
@@ -10591,13 +10663,13 @@
         <v>468</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E49" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -10635,7 +10707,7 @@
         <v>482</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D2" t="s">
         <v>484</v>
@@ -10652,7 +10724,7 @@
         <v>483</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D3" t="s">
         <v>485</v>
@@ -10696,13 +10768,13 @@
         <v>488</v>
       </c>
       <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
         <v>223</v>
       </c>
-      <c r="D2" t="s">
-        <v>214</v>
-      </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10713,13 +10785,13 @@
         <v>489</v>
       </c>
       <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
         <v>223</v>
       </c>
-      <c r="D3" t="s">
-        <v>214</v>
-      </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10730,13 +10802,13 @@
         <v>490</v>
       </c>
       <c r="C4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" t="s">
         <v>223</v>
       </c>
-      <c r="D4" t="s">
-        <v>214</v>
-      </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10747,13 +10819,13 @@
         <v>491</v>
       </c>
       <c r="C5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" t="s">
         <v>223</v>
       </c>
-      <c r="D5" t="s">
-        <v>214</v>
-      </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10764,13 +10836,13 @@
         <v>492</v>
       </c>
       <c r="C6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" t="s">
         <v>223</v>
       </c>
-      <c r="D6" t="s">
-        <v>214</v>
-      </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10781,13 +10853,13 @@
         <v>493</v>
       </c>
       <c r="C7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s">
         <v>223</v>
       </c>
-      <c r="D7" t="s">
-        <v>214</v>
-      </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10798,13 +10870,13 @@
         <v>494</v>
       </c>
       <c r="C8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" t="s">
         <v>223</v>
       </c>
-      <c r="D8" t="s">
-        <v>214</v>
-      </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10815,13 +10887,13 @@
         <v>495</v>
       </c>
       <c r="C9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" t="s">
         <v>223</v>
       </c>
-      <c r="D9" t="s">
-        <v>214</v>
-      </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10832,13 +10904,13 @@
         <v>496</v>
       </c>
       <c r="C10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" t="s">
         <v>223</v>
       </c>
-      <c r="D10" t="s">
-        <v>214</v>
-      </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10849,13 +10921,13 @@
         <v>497</v>
       </c>
       <c r="C11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" t="s">
         <v>223</v>
       </c>
-      <c r="D11" t="s">
-        <v>214</v>
-      </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10866,13 +10938,13 @@
         <v>498</v>
       </c>
       <c r="C12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" t="s">
         <v>223</v>
       </c>
-      <c r="D12" t="s">
-        <v>214</v>
-      </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -10883,13 +10955,13 @@
         <v>499</v>
       </c>
       <c r="C13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" t="s">
         <v>223</v>
       </c>
-      <c r="D13" t="s">
-        <v>214</v>
-      </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10900,13 +10972,13 @@
         <v>500</v>
       </c>
       <c r="C14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" t="s">
         <v>223</v>
       </c>
-      <c r="D14" t="s">
-        <v>214</v>
-      </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10917,13 +10989,13 @@
         <v>501</v>
       </c>
       <c r="C15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" t="s">
         <v>223</v>
       </c>
-      <c r="D15" t="s">
-        <v>214</v>
-      </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10934,13 +11006,13 @@
         <v>502</v>
       </c>
       <c r="C16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" t="s">
         <v>223</v>
       </c>
-      <c r="D16" t="s">
-        <v>214</v>
-      </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10951,13 +11023,13 @@
         <v>503</v>
       </c>
       <c r="C17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" t="s">
         <v>223</v>
       </c>
-      <c r="D17" t="s">
-        <v>214</v>
-      </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10968,10 +11040,10 @@
         <v>504</v>
       </c>
       <c r="C18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" t="s">
         <v>223</v>
-      </c>
-      <c r="D18" t="s">
-        <v>214</v>
       </c>
       <c r="E18" t="s">
         <v>528</v>
@@ -10985,10 +11057,10 @@
         <v>505</v>
       </c>
       <c r="C19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" t="s">
         <v>223</v>
-      </c>
-      <c r="D19" t="s">
-        <v>214</v>
       </c>
       <c r="E19" t="s">
         <v>528</v>
@@ -11002,10 +11074,10 @@
         <v>506</v>
       </c>
       <c r="C20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" t="s">
         <v>223</v>
-      </c>
-      <c r="D20" t="s">
-        <v>214</v>
       </c>
       <c r="E20" t="s">
         <v>528</v>
@@ -11019,10 +11091,10 @@
         <v>507</v>
       </c>
       <c r="C21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" t="s">
         <v>223</v>
-      </c>
-      <c r="D21" t="s">
-        <v>214</v>
       </c>
       <c r="E21" t="s">
         <v>528</v>
@@ -11036,10 +11108,10 @@
         <v>508</v>
       </c>
       <c r="C22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" t="s">
         <v>223</v>
-      </c>
-      <c r="D22" t="s">
-        <v>214</v>
       </c>
       <c r="E22" t="s">
         <v>528</v>
@@ -11053,10 +11125,10 @@
         <v>509</v>
       </c>
       <c r="C23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" t="s">
         <v>223</v>
-      </c>
-      <c r="D23" t="s">
-        <v>214</v>
       </c>
       <c r="E23" t="s">
         <v>528</v>
@@ -11070,10 +11142,10 @@
         <v>510</v>
       </c>
       <c r="C24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" t="s">
         <v>223</v>
-      </c>
-      <c r="D24" t="s">
-        <v>214</v>
       </c>
       <c r="E24" t="s">
         <v>528</v>
@@ -11087,10 +11159,10 @@
         <v>511</v>
       </c>
       <c r="C25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" t="s">
         <v>223</v>
-      </c>
-      <c r="D25" t="s">
-        <v>214</v>
       </c>
       <c r="E25" t="s">
         <v>528</v>
@@ -11104,10 +11176,10 @@
         <v>512</v>
       </c>
       <c r="C26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" t="s">
         <v>223</v>
-      </c>
-      <c r="D26" t="s">
-        <v>214</v>
       </c>
       <c r="E26" t="s">
         <v>528</v>
@@ -11121,10 +11193,10 @@
         <v>513</v>
       </c>
       <c r="C27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" t="s">
         <v>223</v>
-      </c>
-      <c r="D27" t="s">
-        <v>214</v>
       </c>
       <c r="E27" t="s">
         <v>528</v>
@@ -11138,10 +11210,10 @@
         <v>514</v>
       </c>
       <c r="C28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" t="s">
         <v>223</v>
-      </c>
-      <c r="D28" t="s">
-        <v>214</v>
       </c>
       <c r="E28" t="s">
         <v>528</v>
@@ -11155,10 +11227,10 @@
         <v>515</v>
       </c>
       <c r="C29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" t="s">
         <v>223</v>
-      </c>
-      <c r="D29" t="s">
-        <v>214</v>
       </c>
       <c r="E29" t="s">
         <v>528</v>
@@ -11172,10 +11244,10 @@
         <v>516</v>
       </c>
       <c r="C30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" t="s">
         <v>223</v>
-      </c>
-      <c r="D30" t="s">
-        <v>214</v>
       </c>
       <c r="E30" t="s">
         <v>528</v>
@@ -11189,10 +11261,10 @@
         <v>517</v>
       </c>
       <c r="C31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" t="s">
         <v>223</v>
-      </c>
-      <c r="D31" t="s">
-        <v>214</v>
       </c>
       <c r="E31" t="s">
         <v>528</v>
@@ -11206,10 +11278,10 @@
         <v>518</v>
       </c>
       <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" t="s">
         <v>223</v>
-      </c>
-      <c r="D32" t="s">
-        <v>214</v>
       </c>
       <c r="E32" t="s">
         <v>215</v>
@@ -11223,10 +11295,10 @@
         <v>519</v>
       </c>
       <c r="C33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" t="s">
         <v>223</v>
-      </c>
-      <c r="D33" t="s">
-        <v>214</v>
       </c>
       <c r="E33" t="s">
         <v>215</v>
@@ -11240,10 +11312,10 @@
         <v>520</v>
       </c>
       <c r="C34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" t="s">
         <v>223</v>
-      </c>
-      <c r="D34" t="s">
-        <v>214</v>
       </c>
       <c r="E34" t="s">
         <v>215</v>
@@ -11257,10 +11329,10 @@
         <v>521</v>
       </c>
       <c r="C35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" t="s">
         <v>223</v>
-      </c>
-      <c r="D35" t="s">
-        <v>214</v>
       </c>
       <c r="E35" t="s">
         <v>215</v>
@@ -11274,13 +11346,13 @@
         <v>522</v>
       </c>
       <c r="C36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" t="s">
         <v>223</v>
       </c>
-      <c r="D36" t="s">
-        <v>214</v>
-      </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -11291,13 +11363,13 @@
         <v>523</v>
       </c>
       <c r="C37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" t="s">
         <v>223</v>
       </c>
-      <c r="D37" t="s">
-        <v>214</v>
-      </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -11308,13 +11380,13 @@
         <v>524</v>
       </c>
       <c r="C38" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" t="s">
         <v>223</v>
       </c>
-      <c r="D38" t="s">
-        <v>214</v>
-      </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -11325,10 +11397,10 @@
         <v>525</v>
       </c>
       <c r="C39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" t="s">
         <v>223</v>
-      </c>
-      <c r="D39" t="s">
-        <v>214</v>
       </c>
       <c r="E39" t="s">
         <v>529</v>
@@ -11342,10 +11414,10 @@
         <v>526</v>
       </c>
       <c r="C40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" t="s">
         <v>223</v>
-      </c>
-      <c r="D40" t="s">
-        <v>214</v>
       </c>
       <c r="E40" t="s">
         <v>529</v>
@@ -11359,10 +11431,10 @@
         <v>527</v>
       </c>
       <c r="C41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" t="s">
         <v>223</v>
-      </c>
-      <c r="D41" t="s">
-        <v>214</v>
       </c>
       <c r="E41" t="s">
         <v>220</v>
@@ -12089,7 +12161,7 @@
         <v>578</v>
       </c>
       <c r="E42" t="s">
-        <v>310</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -12106,7 +12178,7 @@
         <v>578</v>
       </c>
       <c r="E43" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -12123,7 +12195,7 @@
         <v>578</v>
       </c>
       <c r="E44" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -12140,7 +12212,7 @@
         <v>578</v>
       </c>
       <c r="E45" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -12157,7 +12229,7 @@
         <v>578</v>
       </c>
       <c r="E46" t="s">
-        <v>589</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -12283,10 +12355,10 @@
         <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12300,10 +12372,10 @@
         <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
